--- a/SVM/test_values/Book1.xlsx
+++ b/SVM/test_values/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medoo\OneDrive\Documents\GitHub\Advanced-ML\SVM\values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/823b6f541266f7f9/Documents/GitHub/Advanced-ML/SVM/test_values/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343CCF4E-3F47-476E-B296-C0ABB76E22CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11850" xr2:uid="{959EC04D-71C7-4C83-B889-7BDBCAF8A647}"/>
+    <workbookView xWindow="3930" yWindow="3840" windowWidth="21585" windowHeight="11385" xr2:uid="{959EC04D-71C7-4C83-B889-7BDBCAF8A647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE90E64E-FE0F-4F07-A743-91B470C8AC15}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
